--- a/segmentation/ribs_data_for_allocation.xlsx
+++ b/segmentation/ribs_data_for_allocation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIPAG_~1\AppData\Local\Temp\Mxt214\RemoteFiles\327702_2_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIPAG_~1\AppData\Local\Temp\Mxt214\RemoteFiles\133316_2_21\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="383">
   <si>
     <t>Subject</t>
   </si>
@@ -287,15 +287,6 @@
     <t>8,13</t>
   </si>
   <si>
-    <t>6,11</t>
-  </si>
-  <si>
-    <t>5,9</t>
-  </si>
-  <si>
-    <t>4,7</t>
-  </si>
-  <si>
     <t>2,19</t>
   </si>
   <si>
@@ -305,9 +296,6 @@
     <t>5,11</t>
   </si>
   <si>
-    <t>6,8</t>
-  </si>
-  <si>
     <t>7,12</t>
   </si>
   <si>
@@ -347,18 +335,6 @@
     <t>11,20,24</t>
   </si>
   <si>
-    <t>21,27</t>
-  </si>
-  <si>
-    <t>31,40</t>
-  </si>
-  <si>
-    <t>30,41</t>
-  </si>
-  <si>
-    <t>34,39</t>
-  </si>
-  <si>
     <t>19,20</t>
   </si>
   <si>
@@ -440,15 +416,9 @@
     <t>24,34</t>
   </si>
   <si>
-    <t>32,26</t>
-  </si>
-  <si>
     <t>31,35</t>
   </si>
   <si>
-    <t>25,39</t>
-  </si>
-  <si>
     <t>24,40</t>
   </si>
   <si>
@@ -548,15 +518,6 @@
     <t>27,44,46</t>
   </si>
   <si>
-    <t>4,5</t>
-  </si>
-  <si>
-    <t>20,38</t>
-  </si>
-  <si>
-    <t>24,37</t>
-  </si>
-  <si>
     <t>29,34</t>
   </si>
   <si>
@@ -599,9 +560,6 @@
     <t>8,11</t>
   </si>
   <si>
-    <t>15,19</t>
-  </si>
-  <si>
     <t>35,47</t>
   </si>
   <si>
@@ -731,9 +689,6 @@
     <t>14,17</t>
   </si>
   <si>
-    <t>14,29</t>
-  </si>
-  <si>
     <t>29,37</t>
   </si>
   <si>
@@ -767,21 +722,12 @@
     <t>13,16</t>
   </si>
   <si>
-    <t>26,32</t>
-  </si>
-  <si>
     <t>30,38</t>
   </si>
   <si>
-    <t>28,35</t>
-  </si>
-  <si>
     <t>2,12</t>
   </si>
   <si>
-    <t>4,13</t>
-  </si>
-  <si>
     <t>5,16</t>
   </si>
   <si>
@@ -794,9 +740,6 @@
     <t>17,18,19</t>
   </si>
   <si>
-    <t>*failed</t>
-  </si>
-  <si>
     <t>19,29</t>
   </si>
   <si>
@@ -893,27 +836,9 @@
     <t>11,12,15</t>
   </si>
   <si>
-    <t>32,38</t>
-  </si>
-  <si>
-    <t>36,40</t>
-  </si>
-  <si>
     <t>2,17</t>
   </si>
   <si>
-    <t>1,19</t>
-  </si>
-  <si>
-    <t>3,18</t>
-  </si>
-  <si>
-    <t>15,20</t>
-  </si>
-  <si>
-    <t>11,14</t>
-  </si>
-  <si>
     <t>9,10</t>
   </si>
   <si>
@@ -974,18 +899,6 @@
     <t>*no sternum</t>
   </si>
   <si>
-    <t>21,36,37</t>
-  </si>
-  <si>
-    <t>19,25</t>
-  </si>
-  <si>
-    <t>27,32</t>
-  </si>
-  <si>
-    <t>28,33</t>
-  </si>
-  <si>
     <t>30,33</t>
   </si>
   <si>
@@ -1104,6 +1017,162 @@
   </si>
   <si>
     <t>P2BRP042-H18</t>
+  </si>
+  <si>
+    <t>28,39</t>
+  </si>
+  <si>
+    <t>4,15</t>
+  </si>
+  <si>
+    <t>23,35</t>
+  </si>
+  <si>
+    <t>17,20,21</t>
+  </si>
+  <si>
+    <t>33,39</t>
+  </si>
+  <si>
+    <t>43,47</t>
+  </si>
+  <si>
+    <t>45,48</t>
+  </si>
+  <si>
+    <t>5,21</t>
+  </si>
+  <si>
+    <t>4,19</t>
+  </si>
+  <si>
+    <t>7,22</t>
+  </si>
+  <si>
+    <t>10,12,13</t>
+  </si>
+  <si>
+    <t>1,18</t>
+  </si>
+  <si>
+    <t>35,37</t>
+  </si>
+  <si>
+    <t>18,20</t>
+  </si>
+  <si>
+    <t>12,15</t>
+  </si>
+  <si>
+    <t>21,22,23</t>
+  </si>
+  <si>
+    <t>11,13,14,17</t>
+  </si>
+  <si>
+    <t>10,19</t>
+  </si>
+  <si>
+    <t>3,16</t>
+  </si>
+  <si>
+    <t>22,26</t>
+  </si>
+  <si>
+    <t>31,39,40</t>
+  </si>
+  <si>
+    <t>L1 bad</t>
+  </si>
+  <si>
+    <t>22,35</t>
+  </si>
+  <si>
+    <t>24,33</t>
+  </si>
+  <si>
+    <t>7,15</t>
+  </si>
+  <si>
+    <t>20,31</t>
+  </si>
+  <si>
+    <t>30,32</t>
+  </si>
+  <si>
+    <t>14,20</t>
+  </si>
+  <si>
+    <t>35,42,45</t>
+  </si>
+  <si>
+    <t>23,25</t>
+  </si>
+  <si>
+    <t>25,32</t>
+  </si>
+  <si>
+    <t>29,35</t>
+  </si>
+  <si>
+    <t>28,37</t>
+  </si>
+  <si>
+    <t>33,40</t>
+  </si>
+  <si>
+    <t>5,18</t>
+  </si>
+  <si>
+    <t>7,17</t>
+  </si>
+  <si>
+    <t>9,16</t>
+  </si>
+  <si>
+    <t>10,20</t>
+  </si>
+  <si>
+    <t>10,11</t>
+  </si>
+  <si>
+    <t>* increase lung proximity</t>
+  </si>
+  <si>
+    <t>10,13,17</t>
+  </si>
+  <si>
+    <t>34,41</t>
+  </si>
+  <si>
+    <t>36,43</t>
+  </si>
+  <si>
+    <t>6,24</t>
+  </si>
+  <si>
+    <t>18,19,20</t>
+  </si>
+  <si>
+    <t>* lung proximity, threshold?</t>
+  </si>
+  <si>
+    <t>34,43</t>
+  </si>
+  <si>
+    <t>31,44</t>
+  </si>
+  <si>
+    <t>30,45</t>
+  </si>
+  <si>
+    <t>1,23</t>
+  </si>
+  <si>
+    <t>4,20</t>
+  </si>
+  <si>
+    <t>14,17,18</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1276,6 +1345,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1560,8 +1633,8 @@
   <dimension ref="A1:P250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1616,7 +1689,7 @@
         <v>12</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1627,7 +1700,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D2" s="1">
         <v>28</v>
@@ -1673,7 +1746,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -1718,7 +1791,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D4" s="5">
         <v>15</v>
@@ -1743,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D5" s="1">
         <v>31</v>
@@ -1786,7 +1859,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>14</v>
@@ -1831,7 +1904,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D7" s="5">
         <v>19</v>
@@ -1856,7 +1929,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D8" s="1">
         <v>41</v>
@@ -1902,7 +1975,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D9" s="1">
         <v>15</v>
@@ -1948,7 +2021,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D10" s="5">
         <v>24</v>
@@ -1973,7 +2046,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D11" s="1">
         <v>32</v>
@@ -2019,7 +2092,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D12" s="1">
         <v>11</v>
@@ -2064,7 +2137,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D13" s="5">
         <v>17</v>
@@ -2089,7 +2162,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>33</v>
@@ -2128,7 +2201,7 @@
         <v>32</v>
       </c>
       <c r="P14" s="19" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -2137,7 +2210,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>36</v>
@@ -2182,7 +2255,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>40</v>
@@ -2207,16 +2280,16 @@
         <v>2</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D17" s="1">
         <v>44</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G17" s="1">
         <v>41</v>
@@ -2252,19 +2325,19 @@
         <v>3</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F18" s="1">
         <v>9</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H18" s="1">
         <v>6</v>
@@ -2297,7 +2370,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D19" s="21">
         <v>25</v>
@@ -2321,74 +2394,75 @@
       <c r="B20" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="D20" s="1">
-        <v>37</v>
+      <c r="C20" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>109</v>
+        <v>336</v>
+      </c>
+      <c r="F20" s="1">
+        <v>41</v>
+      </c>
+      <c r="G20" s="1">
+        <v>36</v>
+      </c>
+      <c r="H20" s="1">
+        <v>35</v>
       </c>
       <c r="I20" s="1">
-        <v>29</v>
-      </c>
-      <c r="J20" s="1">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="K20" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L20" s="1">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M20" s="1">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N20" s="1">
-        <v>24</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>107</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="O20" s="1">
+        <v>32</v>
+      </c>
+      <c r="P20" s="26"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>278</v>
+      <c r="C21" s="22" t="s">
+        <v>258</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" s="1">
-        <v>10</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G21" s="1">
-        <v>7</v>
+        <v>213</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F21" s="1">
+        <v>9</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="H21" s="1">
         <v>6</v>
       </c>
-      <c r="I21" s="1">
-        <v>5</v>
-      </c>
-      <c r="J21" s="1">
-        <v>4</v>
+      <c r="I21" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>339</v>
       </c>
       <c r="K21" s="1">
         <v>3</v>
@@ -2403,19 +2477,20 @@
         <v>8</v>
       </c>
       <c r="O21" s="1">
-        <v>12</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="P21" s="26"/>
     </row>
     <row r="22" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>111</v>
+      <c r="C22" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D22" s="5">
+        <v>25</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -2428,6 +2503,7 @@
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
+      <c r="P22" s="35"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
@@ -2437,16 +2513,16 @@
         <v>2</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D23" s="1">
         <v>37</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G23" s="1">
         <v>29</v>
@@ -2482,28 +2558,28 @@
         <v>3</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D24" s="1">
         <v>15</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I24" s="1">
         <v>5</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="K24" s="1">
         <v>2</v>
@@ -2527,7 +2603,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D25" s="5">
         <v>22</v>
@@ -2552,10 +2628,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E26" s="1">
         <v>25</v>
@@ -2597,13 +2673,13 @@
         <v>3</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D27" s="1">
         <v>12</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F27" s="1">
         <v>8</v>
@@ -2642,10 +2718,10 @@
         <v>4</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -2667,10 +2743,10 @@
         <v>2</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E29" s="1">
         <v>24</v>
@@ -2679,7 +2755,7 @@
         <v>26</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="H29" s="1">
         <v>28</v>
@@ -2709,10 +2785,10 @@
         <v>3</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E30" s="1">
         <v>9</v>
@@ -2751,7 +2827,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D31" s="5">
         <v>19</v>
@@ -2776,8 +2852,8 @@
         <v>2</v>
       </c>
       <c r="C32" s="24"/>
-      <c r="P32" s="1" t="s">
-        <v>127</v>
+      <c r="P32" s="36" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
@@ -2786,8 +2862,8 @@
         <v>3</v>
       </c>
       <c r="C33" s="24"/>
-      <c r="P33" t="s">
-        <v>279</v>
+      <c r="P33" s="24" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2808,6 +2884,9 @@
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
+      <c r="P34" s="25" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
@@ -2817,10 +2896,10 @@
         <v>2</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E35" s="1">
         <v>18</v>
@@ -2862,7 +2941,7 @@
         <v>3</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D36" s="1">
         <v>12</v>
@@ -2907,7 +2986,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D37" s="5">
         <v>15</v>
@@ -2932,13 +3011,13 @@
         <v>2</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D38" s="1">
         <v>43</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F38" s="1">
         <v>33</v>
@@ -2950,7 +3029,7 @@
         <v>31</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="J38" s="1">
         <v>28</v>
@@ -2959,7 +3038,7 @@
         <v>35</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M38" s="1">
         <v>42</v>
@@ -2977,25 +3056,25 @@
         <v>3</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="J39" s="1">
         <v>4</v>
@@ -3007,7 +3086,7 @@
         <v>1</v>
       </c>
       <c r="M39" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N39" s="1">
         <v>8</v>
@@ -3022,10 +3101,10 @@
         <v>4</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -3046,56 +3125,57 @@
       <c r="B41" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>278</v>
+      <c r="C41" s="22" t="s">
+        <v>258</v>
       </c>
       <c r="D41" s="1">
+        <v>32</v>
+      </c>
+      <c r="E41" s="1">
+        <v>33</v>
+      </c>
+      <c r="F41" s="1">
         <v>30</v>
       </c>
-      <c r="E41" s="1">
+      <c r="G41" s="1">
+        <v>28</v>
+      </c>
+      <c r="H41" s="1">
+        <v>26</v>
+      </c>
+      <c r="I41" s="1">
+        <v>31</v>
+      </c>
+      <c r="J41" s="1">
+        <v>22</v>
+      </c>
+      <c r="K41" s="1">
+        <v>23</v>
+      </c>
+      <c r="L41" s="1">
+        <v>24</v>
+      </c>
+      <c r="M41" s="1">
         <v>29</v>
       </c>
-      <c r="F41" s="1">
-        <v>28</v>
-      </c>
-      <c r="G41" s="1">
-        <v>26</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I41" s="1">
-        <v>23</v>
-      </c>
-      <c r="J41" s="1">
-        <v>20</v>
-      </c>
-      <c r="K41" s="1">
-        <v>21</v>
-      </c>
-      <c r="L41" s="1">
-        <v>22</v>
-      </c>
-      <c r="M41" s="1">
-        <v>18</v>
-      </c>
       <c r="N41" s="1">
-        <v>25</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="P41" s="24"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="D42" s="1">
-        <v>12</v>
-      </c>
-      <c r="E42" s="1">
-        <v>10</v>
+      <c r="C42" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>371</v>
       </c>
       <c r="F42" s="1">
         <v>8</v>
@@ -3103,8 +3183,8 @@
       <c r="G42" s="1">
         <v>7</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>87</v>
+      <c r="H42" s="1">
+        <v>6</v>
       </c>
       <c r="I42" s="1">
         <v>5</v>
@@ -3113,32 +3193,31 @@
         <v>4</v>
       </c>
       <c r="K42" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L42" s="1">
         <v>1</v>
       </c>
       <c r="M42" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N42" s="1">
         <v>9</v>
       </c>
       <c r="O42" s="1">
-        <v>15</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="P42" s="24"/>
     </row>
     <row r="43" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D43" s="5">
-        <v>16</v>
-      </c>
+      <c r="C43" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
@@ -3150,6 +3229,7 @@
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
+      <c r="P43" s="25"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
@@ -3158,80 +3238,81 @@
       <c r="B44" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>278</v>
+      <c r="C44" s="22" t="s">
+        <v>258</v>
       </c>
       <c r="D44" s="1">
+        <v>42</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="H44" s="1">
+        <v>29</v>
+      </c>
+      <c r="I44" s="1">
+        <v>33</v>
+      </c>
+      <c r="J44" s="1">
+        <v>36</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="L44" s="1">
         <v>38</v>
       </c>
-      <c r="E44" s="1">
-        <v>26</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H44" s="1">
-        <v>23</v>
-      </c>
-      <c r="I44" s="1">
-        <v>28</v>
-      </c>
-      <c r="J44" s="1">
-        <v>30</v>
-      </c>
-      <c r="K44" s="1">
-        <v>29.34</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="M44" s="1">
-        <v>37</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>138</v>
+        <v>40</v>
+      </c>
+      <c r="N44" s="1">
+        <v>39</v>
       </c>
       <c r="O44" s="1">
-        <v>33</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="P44" s="26"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="D45" s="1">
-        <v>13</v>
-      </c>
-      <c r="E45" s="1">
-        <v>9</v>
-      </c>
-      <c r="F45" s="1">
-        <v>8</v>
+      <c r="C45" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="I45" s="1">
         <v>5</v>
       </c>
-      <c r="J45" s="1">
-        <v>4</v>
-      </c>
-      <c r="K45" s="1">
-        <v>2</v>
-      </c>
-      <c r="L45" s="1">
-        <v>1</v>
+      <c r="J45" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>380</v>
       </c>
       <c r="M45" s="1">
         <v>6</v>
@@ -3240,19 +3321,20 @@
         <v>10</v>
       </c>
       <c r="O45" s="1">
-        <v>14</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="P45" s="26"/>
     </row>
     <row r="46" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>278</v>
+      <c r="C46" s="23" t="s">
+        <v>258</v>
       </c>
       <c r="D46" s="5">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -3265,6 +3347,7 @@
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
+      <c r="P46" s="35"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
@@ -3274,7 +3357,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D47" s="1">
         <v>32.33</v>
@@ -3319,13 +3402,13 @@
         <v>3</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D48" s="1">
         <v>12</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="F48" s="1">
         <v>9</v>
@@ -3364,7 +3447,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D49" s="5">
         <v>23</v>
@@ -3389,7 +3472,7 @@
         <v>2</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D50" s="1">
         <v>32</v>
@@ -3434,7 +3517,7 @@
         <v>3</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>36</v>
@@ -3479,7 +3562,7 @@
         <v>4</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D52" s="5">
         <v>20</v>
@@ -3504,10 +3587,10 @@
         <v>2</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E53" s="1">
         <v>33</v>
@@ -3516,7 +3599,7 @@
         <v>31</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="H53" s="1">
         <v>28</v>
@@ -3549,7 +3632,7 @@
         <v>3</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D54" s="1">
         <v>13</v>
@@ -3594,10 +3677,10 @@
         <v>4</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
@@ -3619,13 +3702,13 @@
         <v>2</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F56" s="1">
         <v>38</v>
@@ -3664,16 +3747,16 @@
         <v>3</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E57" s="1">
         <v>10</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G57" s="1">
         <v>8</v>
@@ -3694,7 +3777,7 @@
         <v>2</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="N57" s="1">
         <v>6</v>
@@ -3709,7 +3792,7 @@
         <v>4</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D58" s="5">
         <v>21</v>
@@ -3734,31 +3817,31 @@
         <v>2</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D59" s="1">
         <v>42</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="L59" s="1">
         <v>33</v>
@@ -3779,28 +3862,28 @@
         <v>3</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D60" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="G60" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K60" s="1">
         <v>4</v>
@@ -3824,7 +3907,7 @@
         <v>4</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D61" s="5">
         <v>24</v>
@@ -3849,7 +3932,7 @@
         <v>2</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D62" s="1">
         <v>32</v>
@@ -3879,7 +3962,7 @@
         <v>19</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="N62" s="1">
         <v>20</v>
@@ -3894,10 +3977,10 @@
         <v>3</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E63" s="1">
         <v>10</v>
@@ -3936,7 +4019,7 @@
         <v>4</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -3959,13 +4042,13 @@
         <v>2</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F65" s="1">
         <v>27</v>
@@ -3992,7 +4075,7 @@
         <v>29</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O65" s="1">
         <v>33</v>
@@ -4004,10 +4087,10 @@
         <v>3</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E66" s="1">
         <v>9</v>
@@ -4049,10 +4132,10 @@
         <v>4</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -4074,13 +4157,13 @@
         <v>2</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D68" s="1">
         <v>41</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F68" s="1">
         <v>37</v>
@@ -4098,7 +4181,7 @@
         <v>32</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="L68" s="1">
         <v>28</v>
@@ -4119,13 +4202,13 @@
         <v>3</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D69" s="1">
         <v>12</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F69" s="1">
         <v>8</v>
@@ -4164,7 +4247,7 @@
         <v>4</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D70" s="5">
         <v>26</v>
@@ -4189,19 +4272,19 @@
         <v>2</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F71" s="1">
         <v>37</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="H71" s="1">
         <v>31</v>
@@ -4216,7 +4299,7 @@
         <v>29</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="M71" s="1">
         <v>34</v>
@@ -4234,7 +4317,7 @@
         <v>3</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>36</v>
@@ -4249,7 +4332,7 @@
         <v>7</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I72" s="1">
         <v>5</v>
@@ -4261,7 +4344,7 @@
         <v>3</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="M72" s="1">
         <v>2</v>
@@ -4279,10 +4362,10 @@
         <v>4</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
@@ -4303,74 +4386,75 @@
       <c r="B74" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="6" t="s">
-        <v>278</v>
+      <c r="C74" s="22" t="s">
+        <v>258</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>177</v>
+        <v>373</v>
       </c>
       <c r="E74" s="1">
-        <v>28</v>
-      </c>
-      <c r="F74" s="1">
-        <v>27</v>
+        <v>35</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>372</v>
       </c>
       <c r="G74" s="1">
-        <v>26</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>176</v>
+        <v>37</v>
+      </c>
+      <c r="H74" s="1">
+        <v>33</v>
       </c>
       <c r="I74" s="1">
-        <v>21</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>175</v>
+        <v>32</v>
+      </c>
+      <c r="J74" s="1">
+        <v>38</v>
       </c>
       <c r="K74" s="1">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L74" s="1">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M74" s="1">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N74" s="1">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="O74" s="1">
-        <v>30</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="P74" s="24"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
       <c r="B75" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="D75" s="1">
-        <v>16</v>
+      <c r="C75" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>375</v>
       </c>
       <c r="E75" s="1">
-        <v>11</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>178</v>
+        <v>12</v>
+      </c>
+      <c r="F75" s="1">
+        <v>9</v>
       </c>
       <c r="G75" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>15</v>
+        <v>374</v>
       </c>
       <c r="I75" s="1">
-        <v>6</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>174</v>
+        <v>5</v>
+      </c>
+      <c r="J75" s="1">
+        <v>4</v>
       </c>
       <c r="K75" s="1">
         <v>3</v>
@@ -4382,22 +4466,23 @@
         <v>2</v>
       </c>
       <c r="N75" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O75" s="1">
-        <v>14</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="P75" s="24"/>
     </row>
     <row r="76" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
       <c r="B76" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>278</v>
+      <c r="C76" s="23" t="s">
+        <v>258</v>
       </c>
       <c r="D76" s="5">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
@@ -4410,6 +4495,7 @@
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
       <c r="O76" s="5"/>
+      <c r="P76" s="25"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
@@ -4419,13 +4505,13 @@
         <v>2</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D77" s="1">
         <v>42</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="F77" s="1">
         <v>30</v>
@@ -4440,7 +4526,7 @@
         <v>35</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="K77" s="1">
         <v>32</v>
@@ -4449,7 +4535,7 @@
         <v>28</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="N77" s="1">
         <v>34</v>
@@ -4464,7 +4550,7 @@
         <v>3</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D78" s="1">
         <v>17</v>
@@ -4482,19 +4568,19 @@
         <v>7</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="L78" s="1">
         <v>2</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="N78" s="1">
         <v>5</v>
@@ -4509,7 +4595,7 @@
         <v>4</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D79" s="5">
         <v>21</v>
@@ -4526,7 +4612,7 @@
       <c r="N79" s="5"/>
       <c r="O79" s="5"/>
       <c r="P79" s="4" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
@@ -4537,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E80" s="1">
         <v>31</v>
@@ -4576,19 +4662,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" t="s">
         <v>3</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D81" s="1">
         <v>12</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="F81" s="1">
         <v>9</v>
@@ -4612,7 +4698,7 @@
         <v>1</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="N81" s="1">
         <v>6</v>
@@ -4621,13 +4707,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D82" s="5">
         <v>18</v>
@@ -4644,24 +4730,24 @@
       <c r="N82" s="5"/>
       <c r="O82" s="5"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>63</v>
       </c>
       <c r="B83" t="s">
         <v>2</v>
       </c>
-      <c r="C83" s="6" t="s">
-        <v>278</v>
+      <c r="C83" s="22" t="s">
+        <v>258</v>
       </c>
       <c r="D83" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>189</v>
+        <v>343</v>
+      </c>
+      <c r="F83" s="1">
+        <v>34</v>
       </c>
       <c r="G83" s="1">
         <v>33</v>
@@ -4670,43 +4756,44 @@
         <v>31</v>
       </c>
       <c r="I83" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J83" s="1">
+        <v>27</v>
+      </c>
+      <c r="K83" s="1">
+        <v>24</v>
+      </c>
+      <c r="L83" s="1">
         <v>25</v>
       </c>
-      <c r="K83" s="1">
-        <v>26</v>
-      </c>
-      <c r="L83" s="1">
-        <v>27</v>
-      </c>
       <c r="M83" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N83" s="1">
         <v>32</v>
       </c>
       <c r="O83" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="P83" s="26"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" t="s">
         <v>3</v>
       </c>
-      <c r="C84" s="6" t="s">
-        <v>278</v>
+      <c r="C84" s="22" t="s">
+        <v>258</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>191</v>
+        <v>345</v>
       </c>
       <c r="E84" s="1">
         <v>10</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>190</v>
+      <c r="F84" s="1">
+        <v>8</v>
       </c>
       <c r="G84" s="1">
         <v>7</v>
@@ -4733,19 +4820,20 @@
         <v>9</v>
       </c>
       <c r="O84" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="P84" s="26"/>
+    </row>
+    <row r="85" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D85" s="5">
-        <v>18</v>
+      <c r="C85" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>344</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
@@ -4758,8 +4846,9 @@
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P85" s="35"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>64</v>
       </c>
@@ -4767,19 +4856,19 @@
         <v>2</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D86" s="1">
         <v>45</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="F86" s="1">
         <v>38</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="H86" s="1">
         <v>33</v>
@@ -4806,22 +4895,22 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="9"/>
       <c r="B87" t="s">
         <v>3</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D87" s="1">
         <v>14</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G87" s="1">
         <v>8</v>
@@ -4851,13 +4940,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="9"/>
       <c r="B88" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D88" s="5">
         <v>25</v>
@@ -4874,7 +4963,7 @@
       <c r="N88" s="5"/>
       <c r="O88" s="5"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>65</v>
       </c>
@@ -4882,13 +4971,13 @@
         <v>2</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="D89" s="1">
         <v>50</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="F89" s="1">
         <v>41</v>
@@ -4921,16 +5010,16 @@
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" t="s">
         <v>3</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="E90" s="1">
         <v>11</v>
@@ -4942,7 +5031,7 @@
         <v>7</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="I90" s="1">
         <v>6</v>
@@ -4957,7 +5046,7 @@
         <v>1</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="N90" s="1">
         <v>10</v>
@@ -4966,13 +5055,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C91" s="23" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="D91" s="5">
         <v>30</v>
@@ -4989,7 +5078,7 @@
       <c r="N91" s="5"/>
       <c r="O91" s="5"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>66</v>
       </c>
@@ -4997,7 +5086,7 @@
         <v>2</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D92" s="1">
         <v>37</v>
@@ -5036,13 +5125,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" t="s">
         <v>3</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D93" s="1">
         <v>14</v>
@@ -5081,16 +5170,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D94" s="21" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
@@ -5104,7 +5193,7 @@
       <c r="N94" s="5"/>
       <c r="O94" s="5"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>67</v>
       </c>
@@ -5112,10 +5201,10 @@
         <v>2</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="E95" s="1">
         <v>31</v>
@@ -5133,7 +5222,7 @@
         <v>27</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="K95" s="1">
         <v>24</v>
@@ -5151,13 +5240,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" t="s">
         <v>3</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>9</v>
@@ -5166,7 +5255,7 @@
         <v>10</v>
       </c>
       <c r="F96" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G96" s="1">
         <v>6</v>
@@ -5202,7 +5291,7 @@
         <v>4</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D97" s="5">
         <v>19</v>
@@ -5227,7 +5316,7 @@
         <v>2</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D98" s="1">
         <v>42</v>
@@ -5263,7 +5352,7 @@
         <v>30</v>
       </c>
       <c r="P98" s="26" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
@@ -5272,13 +5361,13 @@
         <v>3</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D99" s="1">
         <v>13</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="F99" s="1">
         <v>8</v>
@@ -5287,7 +5376,7 @@
         <v>7</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="I99" s="1">
         <v>5</v>
@@ -5314,7 +5403,7 @@
         <v>4</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D100" s="5">
         <v>28</v>
@@ -5339,10 +5428,10 @@
         <v>2</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="E101" s="1">
         <v>26</v>
@@ -5384,13 +5473,13 @@
         <v>3</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F102" s="1">
         <v>8</v>
@@ -5429,7 +5518,7 @@
         <v>4</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D103" s="5">
         <v>16</v>
@@ -5454,13 +5543,13 @@
         <v>2</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="F104" s="1">
         <v>28</v>
@@ -5499,7 +5588,7 @@
         <v>3</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D105" s="1">
         <v>13</v>
@@ -5514,7 +5603,7 @@
         <v>8</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="I105" s="1">
         <v>5</v>
@@ -5544,7 +5633,7 @@
         <v>4</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D106" s="5">
         <v>15</v>
@@ -5569,10 +5658,10 @@
         <v>2</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="E107" s="1">
         <v>27</v>
@@ -5581,7 +5670,7 @@
         <v>33</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="H107" s="1">
         <v>29</v>
@@ -5599,13 +5688,13 @@
         <v>35</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="N107" s="1">
         <v>32</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
@@ -5614,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E108" s="1">
         <v>10</v>
@@ -5635,7 +5724,7 @@
         <v>5</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="K108" s="1">
         <v>2</v>
@@ -5644,7 +5733,7 @@
         <v>1</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="N108" s="1">
         <v>9</v>
@@ -5659,10 +5748,10 @@
         <v>4</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
@@ -5684,16 +5773,16 @@
         <v>2</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D110" s="1">
         <v>34</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="G110" s="1">
         <v>27</v>
@@ -5729,13 +5818,13 @@
         <v>3</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D111" s="1">
         <v>15</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F111" s="1">
         <v>10</v>
@@ -5774,7 +5863,7 @@
         <v>4</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D112" s="5">
         <v>19</v>
@@ -5799,10 +5888,10 @@
         <v>2</v>
       </c>
       <c r="C113" s="22" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="E113" s="1">
         <v>36</v>
@@ -5823,7 +5912,7 @@
         <v>25</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="L113" s="1">
         <v>29</v>
@@ -5838,7 +5927,7 @@
         <v>41</v>
       </c>
       <c r="P113" s="26" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
@@ -5847,10 +5936,10 @@
         <v>3</v>
       </c>
       <c r="C114" s="22" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E114" s="1">
         <v>12</v>
@@ -5892,7 +5981,7 @@
         <v>4</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -5915,13 +6004,13 @@
         <v>2</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="F116" s="1">
         <v>32</v>
@@ -5960,19 +6049,19 @@
         <v>3</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H117" s="1">
         <v>5</v>
@@ -6005,7 +6094,7 @@
         <v>4</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D118" s="5">
         <v>20</v>
@@ -6030,8 +6119,8 @@
         <v>2</v>
       </c>
       <c r="C119" s="24"/>
-      <c r="P119" t="s">
-        <v>214</v>
+      <c r="P119" s="24" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
@@ -6040,8 +6129,8 @@
         <v>3</v>
       </c>
       <c r="C120" s="24"/>
-      <c r="P120" t="s">
-        <v>284</v>
+      <c r="P120" s="24" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="121" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6062,6 +6151,9 @@
       <c r="M121" s="5"/>
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
+      <c r="P121" s="25" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
@@ -6071,13 +6163,13 @@
         <v>2</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D122" s="1">
         <v>34</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="F122" s="1">
         <v>30</v>
@@ -6086,7 +6178,7 @@
         <v>28</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="I122" s="1">
         <v>23</v>
@@ -6116,7 +6208,7 @@
         <v>3</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="E123" s="1">
         <v>11</v>
@@ -6128,7 +6220,7 @@
         <v>8</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="I123" s="1">
         <v>5</v>
@@ -6158,16 +6250,16 @@
         <v>4</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
       <c r="H124" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
@@ -6185,10 +6277,10 @@
         <v>2</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E125" s="1">
         <v>26</v>
@@ -6212,7 +6304,7 @@
         <v>30</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="M125" s="1">
         <v>31</v>
@@ -6230,13 +6322,13 @@
         <v>3</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D126" s="1">
         <v>11</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="F126" s="1">
         <v>8</v>
@@ -6275,10 +6367,10 @@
         <v>4</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
@@ -6300,13 +6392,13 @@
         <v>2</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="F128" s="1">
         <v>34</v>
@@ -6315,7 +6407,7 @@
         <v>30</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="I128" s="1">
         <v>28</v>
@@ -6345,10 +6437,10 @@
         <v>3</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="E129" s="1">
         <v>14</v>
@@ -6360,7 +6452,7 @@
         <v>9</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="I129" s="1">
         <v>7</v>
@@ -6369,7 +6461,7 @@
         <v>5</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="L129" s="1">
         <v>1</v>
@@ -6390,7 +6482,7 @@
         <v>4</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D130" s="5">
         <v>22</v>
@@ -6415,7 +6507,7 @@
         <v>2</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D131" s="1">
         <v>30</v>
@@ -6457,7 +6549,7 @@
         <v>3</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D132" s="1">
         <v>11</v>
@@ -6499,7 +6591,7 @@
         <v>4</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D133" s="5">
         <v>15</v>
@@ -6524,7 +6616,7 @@
         <v>2</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D134" s="1">
         <v>30</v>
@@ -6569,7 +6661,7 @@
         <v>3</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D135" s="1">
         <v>11</v>
@@ -6614,7 +6706,7 @@
         <v>4</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D136" s="5">
         <v>17</v>
@@ -6639,10 +6731,10 @@
         <v>2</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="E137" s="1">
         <v>25</v>
@@ -6684,13 +6776,13 @@
         <v>3</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D138" s="1">
         <v>12</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="F138" s="1">
         <v>10</v>
@@ -6729,7 +6821,7 @@
         <v>4</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D139" s="5">
         <v>15</v>
@@ -6754,7 +6846,7 @@
         <v>2</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D140" s="1">
         <v>27</v>
@@ -6796,7 +6888,7 @@
         <v>3</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D141" s="1">
         <v>12</v>
@@ -6841,7 +6933,7 @@
         <v>4</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D142" s="15">
         <v>15</v>
@@ -6860,7 +6952,7 @@
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="29" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="B143" t="s">
         <v>2</v>
@@ -6868,7 +6960,7 @@
       <c r="C143" s="24"/>
       <c r="D143"/>
       <c r="P143" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
@@ -6878,10 +6970,10 @@
       <c r="C144" s="24"/>
       <c r="D144"/>
       <c r="P144" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B145" s="4" t="s">
         <v>4</v>
       </c>
@@ -6898,15 +6990,15 @@
       <c r="N145" s="5"/>
       <c r="O145" s="5"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="29" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="B146" t="s">
         <v>2</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>12</v>
@@ -6945,13 +7037,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="29"/>
       <c r="B147" t="s">
         <v>3</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>83</v>
@@ -6990,13 +7082,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="29"/>
       <c r="B148" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D148" s="5">
         <v>16</v>
@@ -7013,108 +7105,110 @@
       <c r="N148" s="5"/>
       <c r="O148" s="5"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="29" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="B149" t="s">
         <v>2</v>
       </c>
-      <c r="C149" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="D149" s="1">
-        <v>34</v>
-      </c>
-      <c r="E149" s="1">
+      <c r="C149" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F149" s="1">
         <v>33</v>
       </c>
-      <c r="F149" s="1">
+      <c r="G149" s="1">
         <v>30</v>
-      </c>
-      <c r="G149" s="1">
-        <v>29</v>
       </c>
       <c r="H149" s="1">
         <v>32</v>
       </c>
       <c r="I149" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J149" s="1">
         <v>31</v>
       </c>
       <c r="K149" s="1">
-        <v>28</v>
-      </c>
-      <c r="L149" s="1">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="L149" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="M149" s="1">
         <v>25</v>
       </c>
       <c r="N149" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O149" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P149" s="26"/>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="29"/>
       <c r="B150" t="s">
         <v>3</v>
       </c>
-      <c r="C150" s="6" t="s">
-        <v>278</v>
+      <c r="C150" s="22" t="s">
+        <v>258</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E150" s="1">
-        <v>15</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H150" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I150" s="1" t="s">
-        <v>88</v>
+        <v>347</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F150" s="1">
+        <v>9</v>
+      </c>
+      <c r="G150" s="1">
+        <v>7</v>
+      </c>
+      <c r="H150" s="1">
+        <v>6</v>
+      </c>
+      <c r="I150" s="1">
+        <v>5</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>89</v>
+        <v>332</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>90</v>
+        <v>349</v>
       </c>
       <c r="L150" s="1">
         <v>1</v>
       </c>
       <c r="M150" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N150" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O150" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="P150" s="26"/>
+    </row>
+    <row r="151" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="29"/>
       <c r="B151" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C151" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D151" s="5">
-        <v>21</v>
+      <c r="C151" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>346</v>
       </c>
       <c r="E151" s="5"/>
       <c r="F151" s="27"/>
@@ -7127,25 +7221,26 @@
       <c r="M151" s="5"/>
       <c r="N151" s="5"/>
       <c r="O151" s="5"/>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P151" s="35"/>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="29" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="B152" t="s">
         <v>2</v>
       </c>
       <c r="C152" s="22" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="E152" s="1">
         <v>24</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="G152" s="1">
         <v>22</v>
@@ -7172,16 +7267,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="29"/>
       <c r="B153" t="s">
         <v>3</v>
       </c>
       <c r="C153" s="22" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E153" s="1">
         <v>10</v>
@@ -7217,13 +7312,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="29"/>
       <c r="B154" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C154" s="23" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="D154" s="5">
         <v>17</v>
@@ -7240,18 +7335,18 @@
       <c r="N154" s="5"/>
       <c r="O154" s="5"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="29" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="B155" t="s">
         <v>2</v>
       </c>
       <c r="C155" s="22" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E155" s="1">
         <v>26</v>
@@ -7287,19 +7382,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="29"/>
       <c r="B156" t="s">
         <v>3</v>
       </c>
       <c r="C156" s="22" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="F156" s="1">
         <v>8</v>
@@ -7332,16 +7427,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="29"/>
       <c r="B157" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C157" s="23" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
@@ -7355,18 +7450,18 @@
       <c r="N157" s="5"/>
       <c r="O157" s="5"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="29" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="B158" t="s">
         <v>2</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E158" s="1">
         <v>20</v>
@@ -7402,28 +7497,28 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="29"/>
       <c r="B159" t="s">
         <v>3</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G159" s="1">
         <v>2</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I159" s="1">
         <v>3</v>
@@ -7447,13 +7542,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="29"/>
       <c r="B160" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D160" s="5">
         <v>17</v>
@@ -7472,52 +7567,52 @@
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" s="29" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="B161" t="s">
         <v>2</v>
       </c>
       <c r="C161" s="22" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="E161" s="1">
-        <v>20</v>
-      </c>
-      <c r="F161" s="1">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="G161" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="I161" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>19</v>
+        <v>232</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>318</v>
+        <v>33</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="M161" s="1">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="N161" s="1">
         <v>29</v>
       </c>
       <c r="O161" s="1">
-        <v>23</v>
-      </c>
-      <c r="P161" s="28" t="s">
-        <v>322</v>
+        <v>24</v>
+      </c>
+      <c r="P161" s="26" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
@@ -7526,13 +7621,13 @@
         <v>3</v>
       </c>
       <c r="C162" s="22" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="F162" s="1">
         <v>8</v>
@@ -7564,6 +7659,7 @@
       <c r="O162" s="1">
         <v>11</v>
       </c>
+      <c r="P162" s="26"/>
     </row>
     <row r="163" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="29"/>
@@ -7571,10 +7667,10 @@
         <v>4</v>
       </c>
       <c r="C163" s="23" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="D163" s="21" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
@@ -7587,34 +7683,35 @@
       <c r="M163" s="5"/>
       <c r="N163" s="5"/>
       <c r="O163" s="5"/>
+      <c r="P163" s="35"/>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" s="29" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="B164" t="s">
         <v>2</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D164" s="1">
         <v>32</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="J164" s="1">
         <v>21</v>
@@ -7641,22 +7738,22 @@
         <v>3</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="I165" s="1">
         <v>5</v>
@@ -7686,10 +7783,10 @@
         <v>4</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
@@ -7705,64 +7802,65 @@
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" s="30" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="B167" t="s">
         <v>2</v>
       </c>
-      <c r="C167" s="6" t="s">
-        <v>278</v>
+      <c r="C167" s="22" t="s">
+        <v>258</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="E167" s="1">
+        <v>29</v>
+      </c>
+      <c r="F167" s="1">
+        <v>28</v>
+      </c>
+      <c r="G167" s="1">
+        <v>27</v>
+      </c>
+      <c r="H167" s="1">
         <v>26</v>
       </c>
-      <c r="F167" s="1">
+      <c r="I167" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="J167" s="1">
+        <v>24</v>
+      </c>
+      <c r="K167" s="1">
         <v>25</v>
       </c>
-      <c r="G167" s="1">
+      <c r="L167" s="1">
         <v>23</v>
       </c>
-      <c r="H167" s="1">
-        <v>22</v>
-      </c>
-      <c r="I167" s="1">
-        <v>18</v>
-      </c>
-      <c r="J167" s="1">
-        <v>20</v>
-      </c>
-      <c r="K167" s="1">
-        <v>21</v>
-      </c>
-      <c r="L167" s="1">
-        <v>19</v>
-      </c>
       <c r="M167" s="1">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N167" s="1">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="O167" s="1">
-        <v>17</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="P167" s="26"/>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" t="s">
         <v>3</v>
       </c>
-      <c r="C168" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="D168" s="1">
-        <v>11</v>
-      </c>
-      <c r="E168" s="1">
-        <v>10</v>
+      <c r="C168" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="F168" s="1">
         <v>8</v>
@@ -7779,32 +7877,33 @@
       <c r="J168" s="1">
         <v>3</v>
       </c>
-      <c r="K168" s="1">
-        <v>2</v>
-      </c>
-      <c r="L168" s="1">
-        <v>1</v>
+      <c r="K168" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="L168" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="M168" s="1">
         <v>4</v>
       </c>
       <c r="N168" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O168" s="1">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="P168" s="26"/>
     </row>
     <row r="169" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C169" s="4" t="s">
-        <v>278</v>
+      <c r="C169" s="23" t="s">
+        <v>258</v>
       </c>
       <c r="D169" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
@@ -7817,28 +7916,29 @@
       <c r="M169" s="5"/>
       <c r="N169" s="5"/>
       <c r="O169" s="5"/>
+      <c r="P169" s="35"/>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" s="29" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="B170" t="s">
         <v>2</v>
       </c>
-      <c r="C170" s="6" t="s">
-        <v>278</v>
+      <c r="C170" s="22" t="s">
+        <v>258</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E170" s="1">
-        <v>23</v>
+        <v>354</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>245</v>
       </c>
       <c r="F170" s="1">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G170" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H170" s="1">
         <v>22</v>
@@ -7853,43 +7953,44 @@
         <v>25</v>
       </c>
       <c r="L170" s="1">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M170" s="1">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="N170" s="1">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O170" s="1">
-        <v>19</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="P170" s="26"/>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" t="s">
         <v>3</v>
       </c>
-      <c r="C171" s="6" t="s">
-        <v>278</v>
+      <c r="C171" s="22" t="s">
+        <v>258</v>
       </c>
       <c r="D171" s="1">
         <v>12</v>
       </c>
-      <c r="E171" s="1" t="s">
-        <v>30</v>
+      <c r="E171" s="1">
+        <v>10</v>
       </c>
       <c r="F171" s="1">
         <v>8</v>
       </c>
-      <c r="G171" s="1">
-        <v>7</v>
+      <c r="G171" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="H171" s="1">
         <v>6</v>
       </c>
-      <c r="I171" s="1">
-        <v>4</v>
+      <c r="I171" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="J171" s="1">
         <v>3</v>
@@ -7900,8 +8001,8 @@
       <c r="L171" s="1">
         <v>2</v>
       </c>
-      <c r="M171" s="1">
-        <v>5</v>
+      <c r="M171" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="N171" s="1">
         <v>9</v>
@@ -7909,17 +8010,18 @@
       <c r="O171" s="1">
         <v>11</v>
       </c>
+      <c r="P171" s="26"/>
     </row>
     <row r="172" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C172" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D172" s="5">
-        <v>15</v>
+      <c r="C172" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
@@ -7932,61 +8034,63 @@
       <c r="M172" s="5"/>
       <c r="N172" s="5"/>
       <c r="O172" s="5"/>
+      <c r="P172" s="35"/>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" s="29" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="B173" t="s">
         <v>2</v>
       </c>
-      <c r="C173" s="6" t="s">
-        <v>278</v>
+      <c r="C173" s="22" t="s">
+        <v>258</v>
       </c>
       <c r="D173" s="1">
-        <v>30</v>
-      </c>
-      <c r="E173" s="1">
+        <v>33</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G173" s="1">
+        <v>28</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="I173" s="1">
         <v>26</v>
       </c>
-      <c r="F173" s="1">
-        <v>29</v>
-      </c>
-      <c r="G173" s="1">
-        <v>27</v>
-      </c>
-      <c r="H173" s="1">
-        <v>20</v>
-      </c>
-      <c r="I173" s="1">
-        <v>23</v>
-      </c>
       <c r="J173" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K173" s="1">
         <v>21</v>
       </c>
       <c r="L173" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M173" s="1">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N173" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O173" s="1">
-        <v>28</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="P173" s="26"/>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" t="s">
         <v>3</v>
       </c>
-      <c r="C174" s="6" t="s">
-        <v>278</v>
+      <c r="C174" s="22" t="s">
+        <v>258</v>
       </c>
       <c r="D174" s="1">
         <v>12</v>
@@ -7994,8 +8098,8 @@
       <c r="E174" s="1">
         <v>10</v>
       </c>
-      <c r="F174" s="1">
-        <v>9</v>
+      <c r="F174" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="G174" s="1">
         <v>7</v>
@@ -8024,18 +8128,17 @@
       <c r="O174" s="1">
         <v>11</v>
       </c>
+      <c r="P174" s="26"/>
     </row>
     <row r="175" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C175" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D175" s="5" t="s">
-        <v>148</v>
-      </c>
+      <c r="C175" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D175" s="5"/>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
@@ -8047,25 +8150,26 @@
       <c r="M175" s="5"/>
       <c r="N175" s="5"/>
       <c r="O175" s="5"/>
+      <c r="P175" s="35"/>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" s="29" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="B176" t="s">
         <v>2</v>
       </c>
       <c r="C176" s="22" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="D176" s="1">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>290</v>
+        <v>359</v>
       </c>
       <c r="F176" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G176" s="1">
         <v>31</v>
@@ -8073,17 +8177,17 @@
       <c r="H176" s="1">
         <v>34</v>
       </c>
-      <c r="I176" s="1">
-        <v>33</v>
+      <c r="I176" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="K176" s="1">
-        <v>28</v>
-      </c>
-      <c r="L176" s="1">
-        <v>29</v>
+        <v>147</v>
+      </c>
+      <c r="K176" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L176" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="M176" s="1">
         <v>30</v>
@@ -8094,6 +8198,7 @@
       <c r="O176" s="1">
         <v>27</v>
       </c>
+      <c r="P176" s="26"/>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
@@ -8101,13 +8206,13 @@
         <v>3</v>
       </c>
       <c r="C177" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="D177" t="s">
-        <v>294</v>
+        <v>258</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>295</v>
+        <v>134</v>
       </c>
       <c r="F177" s="17">
         <v>9</v>
@@ -8118,20 +8223,20 @@
       <c r="H177" s="1">
         <v>6</v>
       </c>
-      <c r="I177" s="1">
-        <v>5</v>
-      </c>
-      <c r="J177" s="1">
-        <v>4</v>
-      </c>
-      <c r="K177" s="1" t="s">
-        <v>293</v>
+      <c r="I177" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="K177" s="1">
+        <v>3</v>
       </c>
       <c r="L177" s="1" t="s">
-        <v>292</v>
+        <v>342</v>
       </c>
       <c r="M177" s="1" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="N177" s="1">
         <v>7</v>
@@ -8139,6 +8244,7 @@
       <c r="O177" s="1">
         <v>10</v>
       </c>
+      <c r="P177" s="26"/>
     </row>
     <row r="178" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
@@ -8146,10 +8252,10 @@
         <v>4</v>
       </c>
       <c r="C178" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="D178" s="5">
-        <v>23</v>
+        <v>258</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>360</v>
       </c>
       <c r="E178" s="5"/>
       <c r="F178" s="18"/>
@@ -8162,43 +8268,44 @@
       <c r="M178" s="5"/>
       <c r="N178" s="5"/>
       <c r="O178" s="5"/>
+      <c r="P178" s="35"/>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" s="29" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="B179" t="s">
         <v>2</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="H179" s="1">
         <v>25</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="L179" s="1" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="M179" s="1">
         <v>33</v>
@@ -8216,25 +8323,25 @@
         <v>3</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H180" s="1">
         <v>6</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="J180" s="1">
         <v>4</v>
@@ -8243,7 +8350,7 @@
         <v>2</v>
       </c>
       <c r="L180" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="M180" s="1">
         <v>3</v>
@@ -8261,7 +8368,7 @@
         <v>4</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D181" s="5" t="s">
         <v>40</v>
@@ -8280,64 +8387,65 @@
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" s="29" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="B182" t="s">
         <v>2</v>
       </c>
-      <c r="C182" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E182" s="1">
+      <c r="C182" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="D182" s="1">
+        <v>37</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F182" s="1">
+        <v>22</v>
+      </c>
+      <c r="G182" s="1">
+        <v>26</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="I182" s="1">
+        <v>24</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="K182" s="1">
         <v>28</v>
       </c>
-      <c r="F182" s="1">
-        <v>21</v>
-      </c>
-      <c r="G182" s="1">
-        <v>25</v>
-      </c>
-      <c r="H182" s="1">
-        <v>24</v>
-      </c>
-      <c r="I182" s="1">
-        <v>23</v>
-      </c>
-      <c r="J182" s="1">
-        <v>22</v>
-      </c>
-      <c r="K182" s="1">
-        <v>27</v>
-      </c>
       <c r="L182" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M182" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N182" s="1">
-        <v>31</v>
-      </c>
-      <c r="O182" s="1" t="s">
-        <v>247</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="O182" s="1">
+        <v>36</v>
+      </c>
+      <c r="P182" s="26"/>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" t="s">
         <v>3</v>
       </c>
-      <c r="C183" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E183" s="1">
-        <v>10</v>
+      <c r="C183" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="D183" s="1">
+        <v>13</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>369</v>
       </c>
       <c r="F183" s="1">
         <v>8</v>
@@ -8348,11 +8456,11 @@
       <c r="H183" s="1">
         <v>5</v>
       </c>
-      <c r="I183" s="1">
-        <v>4</v>
-      </c>
-      <c r="J183" s="1">
-        <v>3</v>
+      <c r="I183" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="J183" s="1" t="s">
+        <v>349</v>
       </c>
       <c r="K183" s="1">
         <v>1</v>
@@ -8364,64 +8472,142 @@
         <v>6</v>
       </c>
       <c r="N183" s="1">
-        <v>11</v>
-      </c>
-      <c r="O183" s="1" t="s">
-        <v>234</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="O183" s="1">
+        <v>14</v>
+      </c>
+      <c r="P183" s="26"/>
     </row>
     <row r="184" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C184" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D184" s="5">
-        <v>15</v>
+      <c r="C184" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
       <c r="G184" s="5"/>
       <c r="H184" s="5"/>
       <c r="I184" s="5"/>
-      <c r="J184" s="5"/>
+      <c r="J184" s="1"/>
       <c r="K184" s="5"/>
       <c r="L184" s="5"/>
       <c r="M184" s="5"/>
       <c r="N184" s="5"/>
       <c r="O184" s="5"/>
+      <c r="P184" s="35"/>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" s="29" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="B185" t="s">
         <v>2</v>
       </c>
-      <c r="C185" s="24"/>
-      <c r="P185" s="1" t="s">
-        <v>256</v>
-      </c>
+      <c r="C185" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E185" s="1">
+        <v>34</v>
+      </c>
+      <c r="F185" s="1">
+        <v>36</v>
+      </c>
+      <c r="G185" s="1">
+        <v>31</v>
+      </c>
+      <c r="H185" s="1">
+        <v>26</v>
+      </c>
+      <c r="I185" s="1">
+        <v>25</v>
+      </c>
+      <c r="J185" s="1">
+        <v>33</v>
+      </c>
+      <c r="K185" s="1">
+        <v>32</v>
+      </c>
+      <c r="L185" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="M185" s="1">
+        <v>30</v>
+      </c>
+      <c r="N185" s="1">
+        <v>35</v>
+      </c>
+      <c r="O185" s="1">
+        <v>37</v>
+      </c>
+      <c r="P185" s="1"/>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" t="s">
         <v>3</v>
       </c>
-      <c r="C186" s="24"/>
-      <c r="P186" s="1" t="s">
-        <v>256</v>
-      </c>
+      <c r="C186" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E186" s="1">
+        <v>11</v>
+      </c>
+      <c r="F186" s="1">
+        <v>10</v>
+      </c>
+      <c r="G186" s="1">
+        <v>8</v>
+      </c>
+      <c r="H186" s="1">
+        <v>7</v>
+      </c>
+      <c r="I186" s="1">
+        <v>6</v>
+      </c>
+      <c r="J186" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="K186" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L186" s="1">
+        <v>1</v>
+      </c>
+      <c r="M186" s="1">
+        <v>5</v>
+      </c>
+      <c r="N186" s="1">
+        <v>9</v>
+      </c>
+      <c r="O186" s="1">
+        <v>12</v>
+      </c>
+      <c r="P186" s="1"/>
     </row>
     <row r="187" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C187" s="25"/>
-      <c r="D187" s="5"/>
+      <c r="C187" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D187" s="5">
+        <v>19</v>
+      </c>
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
       <c r="G187" s="5"/>
@@ -8433,39 +8619,113 @@
       <c r="M187" s="5"/>
       <c r="N187" s="5"/>
       <c r="O187" s="5"/>
-      <c r="P187" s="5" t="s">
-        <v>256</v>
-      </c>
+      <c r="P187" s="5"/>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" s="30" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="B188" t="s">
         <v>2</v>
       </c>
-      <c r="C188" s="24"/>
-      <c r="P188" s="1" t="s">
-        <v>256</v>
-      </c>
+      <c r="C188" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E188" s="1">
+        <v>30</v>
+      </c>
+      <c r="F188" s="1">
+        <v>29</v>
+      </c>
+      <c r="G188" s="1">
+        <v>28</v>
+      </c>
+      <c r="H188" s="1">
+        <v>27</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J188" s="1">
+        <v>24</v>
+      </c>
+      <c r="K188" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="L188" s="1">
+        <v>26</v>
+      </c>
+      <c r="M188" s="1">
+        <v>31</v>
+      </c>
+      <c r="N188" s="1">
+        <v>33</v>
+      </c>
+      <c r="O188" s="1">
+        <v>36</v>
+      </c>
+      <c r="P188" s="1"/>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" t="s">
         <v>3</v>
       </c>
-      <c r="C189" s="24"/>
-      <c r="P189" s="1" t="s">
-        <v>256</v>
-      </c>
+      <c r="C189" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E189" s="1">
+        <v>10</v>
+      </c>
+      <c r="F189" s="1">
+        <v>8</v>
+      </c>
+      <c r="G189" s="1">
+        <v>7</v>
+      </c>
+      <c r="H189" s="1">
+        <v>5</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="J189" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K189" s="1">
+        <v>2</v>
+      </c>
+      <c r="L189" s="1">
+        <v>3</v>
+      </c>
+      <c r="M189" s="1">
+        <v>6</v>
+      </c>
+      <c r="N189" s="1">
+        <v>9</v>
+      </c>
+      <c r="O189" s="1">
+        <v>13</v>
+      </c>
+      <c r="P189" s="1"/>
     </row>
     <row r="190" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C190" s="25"/>
-      <c r="D190" s="5"/>
+      <c r="C190" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>334</v>
+      </c>
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
@@ -8477,109 +8737,109 @@
       <c r="M190" s="5"/>
       <c r="N190" s="5"/>
       <c r="O190" s="5"/>
-      <c r="P190" s="5" t="s">
-        <v>256</v>
-      </c>
+      <c r="P190" s="5"/>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" s="29" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="B191" t="s">
         <v>2</v>
       </c>
-      <c r="C191" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="D191" s="1">
-        <v>37</v>
+      <c r="C191" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>248</v>
+        <v>364</v>
       </c>
       <c r="F191" s="1">
-        <v>33</v>
-      </c>
-      <c r="G191" s="1">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="H191" s="1">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I191" s="1">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>126</v>
+        <v>363</v>
       </c>
       <c r="K191" s="1" t="s">
-        <v>114</v>
+        <v>273</v>
       </c>
       <c r="L191" s="1" t="s">
-        <v>249</v>
+        <v>362</v>
       </c>
       <c r="M191" s="1">
+        <v>25</v>
+      </c>
+      <c r="N191" s="1">
+        <v>26</v>
+      </c>
+      <c r="O191" s="1">
         <v>24</v>
       </c>
-      <c r="N191" s="1">
-        <v>25</v>
-      </c>
-      <c r="O191" s="1">
-        <v>22</v>
-      </c>
+      <c r="P191" s="26"/>
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" t="s">
         <v>3</v>
       </c>
-      <c r="C192" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="D192" s="1">
-        <v>11</v>
+      <c r="C192" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>368</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F192" s="1">
-        <v>7</v>
-      </c>
-      <c r="G192" s="1">
-        <v>6</v>
+        <v>367</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>252</v>
+        <v>365</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K192" s="1">
-        <v>1</v>
+        <v>242</v>
+      </c>
+      <c r="K192" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="L192" s="1" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="M192" s="1">
         <v>8</v>
       </c>
       <c r="N192" s="1">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="P192" s="26"/>
     </row>
     <row r="193" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C193" s="4" t="s">
-        <v>278</v>
+      <c r="C193" s="23" t="s">
+        <v>258</v>
       </c>
       <c r="D193" s="5">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
@@ -8592,16 +8852,17 @@
       <c r="M193" s="5"/>
       <c r="N193" s="5"/>
       <c r="O193" s="5"/>
+      <c r="P193" s="35"/>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" s="29" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="B194" t="s">
         <v>2</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D194" s="1">
         <v>28</v>
@@ -8646,7 +8907,7 @@
         <v>3</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D195" s="1">
         <v>11</v>
@@ -8691,7 +8952,7 @@
         <v>4</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D196" s="5">
         <v>15</v>
@@ -8710,22 +8971,22 @@
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" s="29" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="B197" t="s">
         <v>2</v>
       </c>
       <c r="C197" s="22" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="D197" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="E197" s="1">
         <v>29</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="G197" s="1">
         <v>27</v>
@@ -8755,7 +9016,7 @@
         <v>31</v>
       </c>
       <c r="P197" s="28" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.25">
@@ -8764,16 +9025,16 @@
         <v>3</v>
       </c>
       <c r="C198" s="22" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F198" s="17" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="G198" s="1">
         <v>7</v>
@@ -8809,10 +9070,10 @@
         <v>4</v>
       </c>
       <c r="C199" s="23" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="E199" s="5"/>
       <c r="F199" s="18"/>
@@ -8828,13 +9089,13 @@
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" s="29" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="B200" t="s">
         <v>2</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D200" s="1">
         <v>32</v>
@@ -8855,10 +9116,10 @@
         <v>27</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="K200" s="1" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="L200" s="1">
         <v>31</v>
@@ -8879,7 +9140,7 @@
         <v>3</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D201" s="1">
         <v>11</v>
@@ -8894,19 +9155,19 @@
         <v>6</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="K201" s="1">
         <v>1</v>
       </c>
       <c r="L201" s="1" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="M201" s="1">
         <v>7</v>
@@ -8924,7 +9185,7 @@
         <v>4</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D202" s="5">
         <v>18</v>
@@ -8943,13 +9204,13 @@
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" s="29" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="B203" t="s">
         <v>2</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D203" s="1">
         <v>36</v>
@@ -8957,8 +9218,8 @@
       <c r="E203" s="1">
         <v>37</v>
       </c>
-      <c r="F203" s="1">
-        <v>35</v>
+      <c r="F203" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="G203" s="1">
         <v>32</v>
@@ -8994,7 +9255,7 @@
         <v>3</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>36</v>
@@ -9003,7 +9264,7 @@
         <v>13</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="G204" s="1">
         <v>8</v>
@@ -9039,7 +9300,7 @@
         <v>4</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D205" s="5">
         <v>25</v>
@@ -9058,16 +9319,16 @@
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206" s="29" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="B206" t="s">
         <v>2</v>
       </c>
       <c r="C206" s="22" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="D206" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="E206" s="1">
         <v>21</v>
@@ -9085,7 +9346,7 @@
         <v>24</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="K206" s="1">
         <v>28</v>
@@ -9109,10 +9370,10 @@
         <v>3</v>
       </c>
       <c r="C207" s="22" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="D207" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="E207" s="1">
         <v>10</v>
@@ -9154,7 +9415,7 @@
         <v>4</v>
       </c>
       <c r="C208" s="23" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="D208" s="5">
         <v>18</v>
@@ -9173,13 +9434,13 @@
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209" s="29" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="B209" t="s">
         <v>2</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D209" s="1">
         <v>30</v>
@@ -9188,7 +9449,7 @@
         <v>20</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G209" s="1">
         <v>24</v>
@@ -9221,10 +9482,10 @@
         <v>3</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E210" s="1">
         <v>10</v>
@@ -9235,8 +9496,8 @@
       <c r="G210" s="1">
         <v>7</v>
       </c>
-      <c r="H210" s="1" t="s">
-        <v>93</v>
+      <c r="H210" s="1">
+        <v>6</v>
       </c>
       <c r="I210" s="1">
         <v>5</v>
@@ -9266,10 +9527,10 @@
         <v>4</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
@@ -9285,22 +9546,22 @@
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" s="29" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="B212" t="s">
         <v>2</v>
       </c>
       <c r="C212" s="22" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="D212" s="1">
         <v>38</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="G212" s="1">
         <v>34</v>
@@ -9336,19 +9597,19 @@
         <v>3</v>
       </c>
       <c r="C213" s="22" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="D213" s="1">
         <v>17</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H213" s="1">
         <v>7</v>
@@ -9381,10 +9642,10 @@
         <v>4</v>
       </c>
       <c r="C214" s="23" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="E214" s="5"/>
       <c r="F214" s="5"/>
@@ -9400,16 +9661,16 @@
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" s="29" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="B215" t="s">
         <v>2</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E215" s="1">
         <v>27</v>
@@ -9418,22 +9679,22 @@
         <v>26</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="J215" s="1">
         <v>20</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="L215" s="1" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="M215" s="1">
         <v>22</v>
@@ -9451,7 +9712,7 @@
         <v>3</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D216" s="1">
         <v>11</v>
@@ -9475,10 +9736,10 @@
         <v>3</v>
       </c>
       <c r="K216" s="1" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="M216" s="1">
         <v>5</v>
@@ -9496,10 +9757,10 @@
         <v>4</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
@@ -9515,19 +9776,19 @@
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218" s="29" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="B218" t="s">
         <v>2</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="F218" s="1">
         <v>21</v>
@@ -9548,7 +9809,7 @@
         <v>22</v>
       </c>
       <c r="L218" s="1" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="M218" s="1">
         <v>28</v>
@@ -9566,22 +9827,22 @@
         <v>3</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="E219" s="1">
         <v>9</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="G219" s="1">
         <v>7</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="I219" s="1">
         <v>4</v>
@@ -9611,7 +9872,7 @@
         <v>4</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D220" s="5">
         <v>17</v>
@@ -9630,25 +9891,25 @@
     </row>
     <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221" s="29" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="B221" t="s">
         <v>2</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D221" s="1">
         <v>37</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="H221" s="1">
         <v>34</v>
@@ -9682,13 +9943,13 @@
         <v>3</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>85</v>
@@ -9697,10 +9958,10 @@
         <v>86</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="J222" s="1">
         <v>5</v>
@@ -9727,7 +9988,7 @@
         <v>4</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D223" s="5">
         <v>23</v>
@@ -9746,13 +10007,13 @@
     </row>
     <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224" s="29" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="B224" t="s">
         <v>2</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D224" s="1">
         <v>21</v>
@@ -9797,7 +10058,7 @@
         <v>3</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D225" s="1">
         <v>11</v>
@@ -9842,10 +10103,10 @@
         <v>4</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
@@ -9861,19 +10122,19 @@
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="29" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="B227" t="s">
         <v>2</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="F227" s="1">
         <v>28</v>
@@ -9882,16 +10143,16 @@
         <v>34</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="L227" s="1">
         <v>25</v>
@@ -9912,10 +10173,10 @@
         <v>3</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E228" s="1">
         <v>14</v>
@@ -9927,13 +10188,13 @@
         <v>8</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J228" s="1" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="K228" s="1">
         <v>2</v>
@@ -9957,10 +10218,10 @@
         <v>4</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="E229" s="5"/>
       <c r="F229" s="5"/>
@@ -9976,13 +10237,13 @@
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="29" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="B230" t="s">
         <v>2</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D230" s="1">
         <v>28</v>
@@ -10027,10 +10288,10 @@
         <v>3</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E231" s="1">
         <v>10</v>
@@ -10072,7 +10333,7 @@
         <v>4</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D232" s="5">
         <v>15</v>
@@ -10091,13 +10352,13 @@
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="29" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="B233" t="s">
         <v>2</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>8</v>
@@ -10109,7 +10370,7 @@
         <v>23</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="H233" s="1">
         <v>16</v>
@@ -10142,7 +10403,7 @@
         <v>3</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>9</v>
@@ -10187,7 +10448,7 @@
         <v>4</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D235" s="5">
         <v>15</v>
@@ -10206,16 +10467,16 @@
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="29" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="B236" t="s">
         <v>2</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="E236" s="1">
         <v>17</v>
@@ -10230,16 +10491,16 @@
         <v>22</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="J236" s="1" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="K236" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="M236" s="1">
         <v>26</v>
@@ -10257,43 +10518,43 @@
         <v>3</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D237" s="1">
+        <v>11</v>
+      </c>
+      <c r="E237" s="17">
+        <v>9</v>
+      </c>
+      <c r="F237" s="17">
+        <v>7</v>
+      </c>
+      <c r="G237" s="17">
+        <v>4</v>
+      </c>
+      <c r="H237" s="17">
+        <v>1</v>
+      </c>
+      <c r="I237" s="17">
+        <v>5</v>
+      </c>
+      <c r="J237" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="K237" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="L237" s="17">
+        <v>6</v>
+      </c>
+      <c r="M237" s="17">
+        <v>8</v>
+      </c>
+      <c r="N237" s="17">
+        <v>10</v>
+      </c>
+      <c r="O237" s="17">
         <v>12</v>
-      </c>
-      <c r="E237" s="1">
-        <v>10</v>
-      </c>
-      <c r="F237" s="1">
-        <v>8</v>
-      </c>
-      <c r="G237" s="1">
-        <v>6</v>
-      </c>
-      <c r="H237" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="I237" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="J237" s="1">
-        <v>5</v>
-      </c>
-      <c r="K237" s="1">
-        <v>1</v>
-      </c>
-      <c r="L237" s="1">
-        <v>4</v>
-      </c>
-      <c r="M237" s="1">
-        <v>7</v>
-      </c>
-      <c r="N237" s="1">
-        <v>9</v>
-      </c>
-      <c r="O237" s="1">
-        <v>11</v>
       </c>
     </row>
     <row r="238" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -10302,7 +10563,7 @@
         <v>4</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D238" s="5">
         <v>16</v>
@@ -10321,19 +10582,19 @@
     </row>
     <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="29" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="B239" t="s">
         <v>2</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="E239" s="1">
         <v>27</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G239" s="1">
         <v>32</v>
@@ -10369,7 +10630,7 @@
         <v>3</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D240" s="1">
         <v>14</v>
@@ -10378,7 +10639,7 @@
         <v>12</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G240" s="1">
         <v>8</v>
@@ -10387,7 +10648,7 @@
         <v>6</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="J240" s="1">
         <v>4</v>
@@ -10414,7 +10675,7 @@
         <v>4</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D241" s="5">
         <v>19</v>
@@ -10433,19 +10694,19 @@
     </row>
     <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A242" s="29" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="B242" t="s">
         <v>2</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D242" s="1">
         <v>28</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>27</v>
@@ -10484,13 +10745,13 @@
         <v>3</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D243" s="1">
         <v>11</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>86</v>
@@ -10529,7 +10790,7 @@
         <v>4</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D244" s="5">
         <v>15</v>
@@ -10548,49 +10809,49 @@
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A245" s="31" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="B245" t="s">
         <v>2</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
+      </c>
+      <c r="D245" s="1">
+        <v>35</v>
       </c>
       <c r="E245" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F245" s="1">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G245" s="1">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H245" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I245" s="1">
-        <v>32</v>
-      </c>
-      <c r="J245" s="1">
         <v>31</v>
       </c>
-      <c r="K245" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="L245" s="1">
+      <c r="J245" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="K245" s="1">
         <v>30</v>
       </c>
-      <c r="M245" s="1" t="s">
-        <v>213</v>
+      <c r="L245" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="M245" s="1">
+        <v>36</v>
       </c>
       <c r="N245" s="1">
-        <v>36</v>
-      </c>
-      <c r="O245" s="1">
         <v>28</v>
       </c>
       <c r="P245" s="26" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="246" spans="1:16" x14ac:dyDescent="0.25">
@@ -10599,39 +10860,39 @@
         <v>3</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>204</v>
+        <v>288</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>313</v>
+        <v>109</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="I246" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J246" s="1" t="s">
-        <v>254</v>
+        <v>236</v>
+      </c>
+      <c r="J246" s="1">
+        <v>3</v>
       </c>
       <c r="K246" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L246" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M246" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N246" s="1">
-        <v>5</v>
-      </c>
-      <c r="O246" s="1">
         <v>17</v>
       </c>
     </row>
@@ -10641,10 +10902,10 @@
         <v>4</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E247" s="5"/>
       <c r="F247" s="5"/>
@@ -10660,16 +10921,16 @@
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A248" s="11" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="B248" t="s">
         <v>2</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="E248" s="1">
         <v>28</v>
@@ -10702,7 +10963,7 @@
         <v>32</v>
       </c>
       <c r="P248" s="26" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.25">
@@ -10711,7 +10972,7 @@
         <v>3</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>9</v>
@@ -10753,7 +11014,7 @@
         <v>4</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D250" s="5">
         <v>22</v>

--- a/segmentation/ribs_data_for_allocation.xlsx
+++ b/segmentation/ribs_data_for_allocation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIPAG_~1\AppData\Local\Temp\Mxt214\RemoteFiles\133316_2_21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIPAG_~1\AppData\Local\Temp\Mxt214\RemoteFiles\66984_4_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1268,7 +1268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1348,6 +1348,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1633,8 +1639,8 @@
   <dimension ref="A1:P250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+      <pane ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F234" sqref="F234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10590,37 +10596,40 @@
       <c r="C239" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="E239" s="1">
+      <c r="D239" s="37">
         <v>27</v>
       </c>
-      <c r="F239" s="1" t="s">
+      <c r="E239" s="37">
+        <v>25</v>
+      </c>
+      <c r="F239" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="G239" s="1">
+      <c r="G239" s="37">
         <v>32</v>
       </c>
-      <c r="H239" s="1">
+      <c r="H239" s="37">
         <v>24</v>
       </c>
-      <c r="I239" s="1">
+      <c r="I239" s="37">
         <v>31</v>
       </c>
-      <c r="J239" s="1">
+      <c r="J239" s="37">
         <v>23</v>
       </c>
-      <c r="K239" s="1">
+      <c r="K239" s="37">
         <v>22</v>
       </c>
-      <c r="L239" s="1">
+      <c r="L239" s="37">
         <v>29</v>
       </c>
-      <c r="M239" s="1">
+      <c r="M239" s="37">
         <v>28</v>
       </c>
-      <c r="N239" s="1">
+      <c r="N239" s="37">
         <v>21</v>
       </c>
-      <c r="O239" s="1">
+      <c r="O239" s="37">
         <v>30</v>
       </c>
     </row>
@@ -10632,40 +10641,40 @@
       <c r="C240" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="D240" s="1">
+      <c r="D240" s="37">
         <v>14</v>
       </c>
-      <c r="E240" s="1">
+      <c r="E240" s="37">
         <v>12</v>
       </c>
-      <c r="F240" s="1" t="s">
+      <c r="F240" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="G240" s="1">
+      <c r="G240" s="37">
         <v>8</v>
       </c>
-      <c r="H240" s="1">
+      <c r="H240" s="37">
         <v>6</v>
       </c>
-      <c r="I240" s="1" t="s">
+      <c r="I240" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="J240" s="1">
-        <v>4</v>
-      </c>
-      <c r="K240" s="1">
-        <v>3</v>
-      </c>
-      <c r="L240" s="1">
+      <c r="J240" s="37">
+        <v>4</v>
+      </c>
+      <c r="K240" s="37">
+        <v>3</v>
+      </c>
+      <c r="L240" s="37">
         <v>1</v>
       </c>
-      <c r="M240" s="1">
-        <v>2</v>
-      </c>
-      <c r="N240" s="1">
+      <c r="M240" s="37">
+        <v>2</v>
+      </c>
+      <c r="N240" s="37">
         <v>7</v>
       </c>
-      <c r="O240" s="1">
+      <c r="O240" s="37">
         <v>11</v>
       </c>
     </row>
@@ -10677,20 +10686,20 @@
       <c r="C241" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="D241" s="5">
+      <c r="D241" s="38">
         <v>19</v>
       </c>
-      <c r="E241" s="5"/>
-      <c r="F241" s="5"/>
-      <c r="G241" s="5"/>
-      <c r="H241" s="5"/>
-      <c r="I241" s="5"/>
-      <c r="J241" s="5"/>
-      <c r="K241" s="5"/>
-      <c r="L241" s="5"/>
-      <c r="M241" s="5"/>
-      <c r="N241" s="5"/>
-      <c r="O241" s="5"/>
+      <c r="E241" s="38"/>
+      <c r="F241" s="38"/>
+      <c r="G241" s="38"/>
+      <c r="H241" s="38"/>
+      <c r="I241" s="38"/>
+      <c r="J241" s="38"/>
+      <c r="K241" s="38"/>
+      <c r="L241" s="38"/>
+      <c r="M241" s="38"/>
+      <c r="N241" s="38"/>
+      <c r="O241" s="38"/>
     </row>
     <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A242" s="29" t="s">
@@ -11033,5 +11042,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/segmentation/ribs_data_for_allocation.xlsx
+++ b/segmentation/ribs_data_for_allocation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIPAG_~1\AppData\Local\Temp\Mxt214\RemoteFiles\66984_4_4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIPAG_~1\AppData\Local\Temp\Mxt214\RemoteFiles\263658_2_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="395">
   <si>
     <t>Subject</t>
   </si>
@@ -1173,6 +1173,42 @@
   </si>
   <si>
     <t>14,17,18</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>T12</t>
   </si>
 </sst>
 </file>
@@ -1639,8 +1675,8 @@
   <dimension ref="A1:P250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F234" sqref="F234"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1658,41 +1694,41 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3">
-        <v>4</v>
-      </c>
-      <c r="H1" s="3">
-        <v>5</v>
-      </c>
-      <c r="I1" s="3">
-        <v>6</v>
-      </c>
-      <c r="J1" s="3">
-        <v>7</v>
-      </c>
-      <c r="K1" s="3">
-        <v>8</v>
-      </c>
-      <c r="L1" s="3">
-        <v>9</v>
-      </c>
-      <c r="M1" s="3">
-        <v>10</v>
-      </c>
-      <c r="N1" s="3">
-        <v>11</v>
-      </c>
-      <c r="O1" s="3">
-        <v>12</v>
+      <c r="D1" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>394</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>294</v>
